--- a/Timetable Allocation.xlsx
+++ b/Timetable Allocation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srede\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139546C8-E562-45AD-9D43-4104F1F76167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82B7F82-047B-439E-8303-384FF9A73B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -173,12 +173,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,401 +487,397 @@
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <f t="shared" ref="C2:C10" si="0">IF(B2="Associate Professor",1,(IF(B2="Assistant Professor",2,3)))</f>
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="L5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="L9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="C1:C10" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C10">
-      <sortCondition ref="C1:C10"/>
-    </sortState>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L10">
     <sortCondition ref="C10"/>
   </sortState>
